--- a/docs/PTA2_DDC_40/PTA1_R5_BDDC_24.07.24_output.xlsx
+++ b/docs/PTA2_DDC_40/PTA1_R5_BDDC_24.07.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,1702 +505,2024 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731367385.9203956</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731367388.632437</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731367385.9203956.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731367388.632437.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>295.99</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>295.62</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.3700000000000045</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731367391.5170746</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731367391.5170746.png</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731367391.5170746.png</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>296.1</v>
       </c>
-      <c r="J4" t="n">
-        <v>296.1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
+      <c r="L4" t="n">
+        <v>296.5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-0.3999999999999773</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731367392.2577968</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731367396.458519</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731367392.2577968.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731367396.458519.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>135.9</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>136.34</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-0.4399999999999977</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731367397.4948041</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731367397.9684045</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731367397.4948041.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731367397.9684045.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>136.76</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>136.51</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.25</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731367400.0688162</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731367400.16894</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731367400.0688162.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731367400.16894.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>6971</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>6964.5</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>6.5</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731367404.3341646</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731367407.2578132</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731367404.3341646.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731367407.2578132.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>6950</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>6980</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>30</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.43</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731367407.2727745</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731367407.7744424</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731367407.2727745.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731367407.7744424.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>6980</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>6960</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>20</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731367408.0711617</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731367413.3553088</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731367408.0711617.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731367413.3553088.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>533.2</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>535.35</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-2.149999999999977</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731367414.9469502</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731367414.9469502.png</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731367414.9469502.png</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>537.05</v>
       </c>
-      <c r="J11" t="n">
-        <v>537.05</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
+      <c r="L11" t="n">
+        <v>537</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.04999999999995453</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731367415.694619</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731367419.6270769</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731367415.694619.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731367419.6270769.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>1103.4</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>1096</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>7.400000000000091</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.67</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731367421.5450127</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731367421.5450127.png</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731367421.5450127.png</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>1094.4</v>
       </c>
-      <c r="J13" t="n">
-        <v>1094.4</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
+      <c r="L13" t="n">
+        <v>1084.6</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-9.800000000000182</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.8999999999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731367425.331573</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731367428.2352061</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731367425.331573.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731367428.2352061.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>129.48</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>128.96</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.5199999999999818</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731367428.6388001</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731367431.8289406</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731367428.6388001.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731367431.8289406.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>129.74</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>131.22</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-1.47999999999999</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-1.14</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731367437.0345764</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731367440.9959521</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731367437.0345764.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731367440.9959521.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>169.22</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>171.72</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-2.5</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-1.48</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731367445.6411858</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731367448.2892163</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731367445.6411858.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731367448.2892163.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>53.48</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>53.605</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-0.125</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731367448.4473064</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731367448.4473064.png</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731367448.4473064.png</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>53.525</v>
       </c>
-      <c r="J18" t="n">
-        <v>53.525</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
+      <c r="L18" t="n">
+        <v>53.535</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.00999999999999801</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731367454.056983</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731367455.1531503</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731367454.056983.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731367455.1531503.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>1465.8</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>1467.6</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-1.799999999999955</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731367457.6551673</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731367457.6551673.png</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731367457.6551673.png</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>1466.6</v>
       </c>
-      <c r="J20" t="n">
-        <v>1466.6</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
+      <c r="L20" t="n">
+        <v>1464.8</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-1.799999999999955</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731367459.642299</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731367461.1373508</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731367459.642299.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731367461.1373508.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>64.06999999999999</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>63.78</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.289999999999992</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.45</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731367463.477236</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731367465.917025</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731367463.477236.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731367465.917025.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>64.39</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>63.91</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.480000000000004</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731367470.3584716</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731367472.1842043</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/SELG1731367470.3584716.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/SELG1731367472.1842043.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>59.03</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>59.08</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.04999999999999716</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731367477.3335931</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731367478.159876</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731367477.3335931.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731367478.159876.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>145.58</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>145.84</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.2599999999999909</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731367478.9721012</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731367479.2688231</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731367478.9721012.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731367479.2688231.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>146.26</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>145.7</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.5600000000000023</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.38</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731367480.5208082</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731367481.347928</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731367480.5208082.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731367481.347928.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>145.34</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>145.86</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.5200000000000102</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731367482.3220375</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731367482.8349087</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731367482.3220375.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731367482.8349087.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>91.5</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>90.2</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>1.299999999999997</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1.42</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731367486.0995886</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731367488.3863075</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731367486.0995886.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731367488.3863075.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>89.40000000000001</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>89.44</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.03999999999999204</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731367492.820814</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731367494.3289778</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731367492.820814.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731367494.3289778.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>364.06</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>361.6</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>2.45999999999998</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.6799999999999999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731367498.1273186</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>./test_images/BSPB1731367498.1273186.png</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
+          <t>./test_images/BSPB1731367498.1273186.png</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>366.4</v>
       </c>
-      <c r="J30" t="n">
-        <v>366.4</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
+      <c r="L30" t="n">
+        <v>370.24</v>
+      </c>
+      <c r="M30" t="n">
+        <v>-3.840000000000032</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-1.05</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731367500.2729461</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731367505.0905535</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/FEES1731367500.2729461.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/FEES1731367505.0905535.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>0.09960000000000001</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>0.10026</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-0.0006599999999999939</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.66</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731367505.710478</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731367507.355375</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/FEES1731367505.710478.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/FEES1731367507.355375.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>0.1002</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>0.10062</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.0004200000000000037</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731367508.1495378</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731367508.1495378.png</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731367508.1495378.png</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>3117.15</v>
       </c>
-      <c r="J33" t="n">
-        <v>3117.15</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
+      <c r="L33" t="n">
+        <v>3132.95</v>
+      </c>
+      <c r="M33" t="n">
+        <v>-15.79999999999973</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-0.51</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731367520.3614442</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731367523.8255088</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731367520.3614442.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731367523.8255088.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>38.055</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>38.01</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>-0.04500000000000171</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731367525.9509506</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731367526.078102</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/TATN1731367525.9509506.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/TATN1731367526.078102.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>664.2</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>662.6</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>1.600000000000023</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731367526.8277435</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731367526.9270413</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/TATN1731367526.8277435.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/TATN1731367526.9270413.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>664.9</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>663.1</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>1.799999999999955</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731367529.5653307</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731367530.977228</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/TATN1731367529.5653307.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/TATN1731367530.977228.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>665.6</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>664.1</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>1.5</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.23</v>
       </c>
     </row>
   </sheetData>
@@ -2199,7 +2536,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2228,6 +2565,16 @@
           <t>part</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -2244,6 +2591,12 @@
       <c r="D2" t="n">
         <v>18.83333333333333</v>
       </c>
+      <c r="E2" t="n">
+        <v>0.8099999999999999</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -2260,6 +2613,12 @@
       <c r="D3" t="n">
         <v>1.633333333333326</v>
       </c>
+      <c r="E3" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -2276,6 +2635,12 @@
       <c r="D4" t="n">
         <v>0.4466666666666678</v>
       </c>
+      <c r="E4" t="n">
+        <v>0.9199999999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -2292,6 +2657,12 @@
       <c r="D5" t="n">
         <v>0.6699999999999946</v>
       </c>
+      <c r="E5" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -2300,13 +2671,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.45999999999998</v>
+        <v>-1.380000000000052</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1.22999999999999</v>
+        <v>-0.6900000000000261</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.3700000000000001</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="7">
@@ -2316,13 +2693,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.799999999999955</v>
+        <v>-3.599999999999909</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.8999999999999773</v>
+        <v>-1.799999999999955</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="8">
@@ -2340,6 +2723,12 @@
       <c r="D8" t="n">
         <v>-0.0001199999999999951</v>
       </c>
+      <c r="E8" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.12</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -2356,6 +2745,12 @@
       <c r="D9" t="n">
         <v>-0.09499999999999886</v>
       </c>
+      <c r="E9" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -2372,6 +2767,12 @@
       <c r="D10" t="n">
         <v>-0.480000000000004</v>
       </c>
+      <c r="E10" t="n">
+        <v>-0.7400000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.37</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -2380,13 +2781,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.125</v>
+        <v>-0.115000000000002</v>
       </c>
       <c r="C11" t="n">
         <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.0625</v>
+        <v>-0.05750000000000099</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="12">
@@ -2404,6 +2811,12 @@
       <c r="D12" t="n">
         <v>0.384999999999998</v>
       </c>
+      <c r="E12" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -2412,13 +2825,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.400000000000091</v>
+        <v>-2.400000000000091</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>3.700000000000045</v>
+        <v>-1.200000000000045</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.2299999999999999</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="14">
@@ -2428,13 +2847,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-2.149999999999977</v>
+        <v>-2.100000000000023</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.074999999999989</v>
+        <v>-1.050000000000011</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="15">
@@ -2444,13 +2869,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3700000000000045</v>
+        <v>-0.02999999999997272</v>
       </c>
       <c r="C15" t="n">
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1850000000000023</v>
+        <v>-0.01499999999998636</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.009999999999999981</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0</v>
       </c>
     </row>
     <row r="16">
@@ -2468,6 +2899,12 @@
       <c r="D16" t="n">
         <v>0.04999999999999716</v>
       </c>
+      <c r="E16" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -2476,13 +2913,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-15.79999999999973</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-15.79999999999973</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0.51</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.51</v>
       </c>
     </row>
     <row r="18">
@@ -2500,6 +2943,12 @@
       <c r="D18" t="n">
         <v>-0.04500000000000171</v>
       </c>
+      <c r="E18" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.12</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -2516,6 +2965,12 @@
       <c r="D19" t="n">
         <v>-2.5</v>
       </c>
+      <c r="E19" t="n">
+        <v>-1.48</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-1.48</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -2530,6 +2985,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
